--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/20/seed5/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.342</v>
+        <v>-13.027</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -482,16 +482,16 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.924</v>
+        <v>5.546</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.176</v>
+        <v>-12.619</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.092</v>
+        <v>16.846</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>6.228000000000001</v>
+        <v>6.617</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -525,7 +525,7 @@
         <v>-8.16</v>
       </c>
       <c r="E5" t="n">
-        <v>16.498</v>
+        <v>16.274</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>17.026</v>
+        <v>16.584</v>
       </c>
     </row>
     <row r="7">
@@ -573,7 +573,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.370000000000001</v>
+        <v>-8.420000000000002</v>
       </c>
       <c r="E8" t="n">
         <v>16.54</v>
@@ -587,7 +587,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.08</v>
+        <v>-10.988</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -610,12 +610,12 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.92</v>
+        <v>16.802</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.696</v>
+        <v>-21.645</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.24</v>
+        <v>-7.604000000000001</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.518</v>
+        <v>-21.66</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,13 +669,13 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.086</v>
+        <v>6.051</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.94</v>
+        <v>-7.678</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -683,16 +683,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.648</v>
+        <v>-21.897</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.326</v>
+        <v>-12.968</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.526</v>
+        <v>-8.366000000000001</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -726,7 +726,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.34</v>
+        <v>-8.480999999999998</v>
       </c>
       <c r="E17" t="n">
         <v>15.63</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.104</v>
+        <v>-12.869</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.27</v>
+        <v>-12.173</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.748</v>
+        <v>16.771</v>
       </c>
     </row>
     <row r="22">
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.174</v>
+        <v>-12.549</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -873,13 +873,13 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.866</v>
+        <v>6.325</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.488</v>
+        <v>-7.800999999999999</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -887,30 +887,30 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.722</v>
+        <v>-21.316</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-14.032</v>
+        <v>-13.682</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.612</v>
+        <v>16.738</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.36</v>
+        <v>-21.361</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.13</v>
+        <v>-13.591</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.352</v>
+        <v>16.563</v>
       </c>
     </row>
     <row r="30">
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.61</v>
+        <v>-12.403</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-20.878</v>
+        <v>-21.167</v>
       </c>
       <c r="B31" t="n">
-        <v>6.106</v>
+        <v>6.099</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,13 +972,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.156</v>
+        <v>-21.396</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.332</v>
+        <v>-13.036</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.764</v>
+        <v>17.217</v>
       </c>
     </row>
     <row r="34">
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.176</v>
+        <v>7.088000000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.862</v>
+        <v>-20.727</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1049,10 +1049,10 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.98</v>
+        <v>-8.302</v>
       </c>
       <c r="E36" t="n">
-        <v>16.658</v>
+        <v>16.921</v>
       </c>
     </row>
     <row r="37">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>6.81</v>
+        <v>6.524000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-20.258</v>
+        <v>-20.369</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>6.67</v>
+        <v>6.603999999999999</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.112</v>
+        <v>16.304</v>
       </c>
     </row>
     <row r="40">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>7.384</v>
+        <v>8.211</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.052000000000001</v>
+        <v>-8.286000000000001</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.944</v>
+        <v>-13.197</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.854</v>
+        <v>5.698</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.534</v>
+        <v>-21.681</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1233,13 +1233,13 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.634</v>
+        <v>-12.316</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.804</v>
+        <v>16.425</v>
       </c>
     </row>
     <row r="48">
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.220000000000001</v>
+        <v>4.903</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1341,12 +1341,12 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.788</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.428</v>
+        <v>-21.352</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1358,12 +1358,12 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.63</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.842</v>
+        <v>-21.899</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-21.76</v>
+        <v>-21.524</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.482</v>
+        <v>16.737</v>
       </c>
     </row>
     <row r="57">
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.188</v>
+        <v>5.520999999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1420,13 +1420,13 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.194</v>
+        <v>-12.75</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.886</v>
+        <v>16.635</v>
       </c>
     </row>
     <row r="59">
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>15.628</v>
+        <v>16.405</v>
       </c>
     </row>
     <row r="61">
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.006</v>
+        <v>-12.975</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1525,7 +1525,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.784000000000001</v>
       </c>
       <c r="E64" t="n">
         <v>16.88</v>
@@ -1562,12 +1562,12 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>16.206</v>
+        <v>17.039</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.758</v>
+        <v>-21.588</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.479999999999999</v>
+        <v>-7.002</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.478</v>
+        <v>-21.604</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>16.95</v>
+        <v>17.126</v>
       </c>
     </row>
     <row r="70">
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.818</v>
+        <v>-21.436</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1664,12 +1664,12 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>16.806</v>
+        <v>16.568</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.932</v>
+        <v>-20.42899999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-12.074</v>
+        <v>-13.174</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.618</v>
+        <v>-12.968</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.703999999999999</v>
+        <v>-7.736</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1800,7 +1800,7 @@
         <v>-6.63</v>
       </c>
       <c r="E80" t="n">
-        <v>16.936</v>
+        <v>16.606</v>
       </c>
     </row>
     <row r="81">
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.409999999999999</v>
+        <v>6.183999999999999</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1834,15 +1834,15 @@
         <v>-7.37</v>
       </c>
       <c r="E82" t="n">
-        <v>16.428</v>
+        <v>16.65</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.84</v>
+        <v>-20.506</v>
       </c>
       <c r="B83" t="n">
-        <v>6.994</v>
+        <v>7.114</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.792</v>
+        <v>16.618</v>
       </c>
     </row>
     <row r="84">
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.046</v>
+        <v>-13.292</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1947,10 +1947,10 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-12.854</v>
+        <v>-12.188</v>
       </c>
       <c r="D89" t="n">
-        <v>-7.537999999999999</v>
+        <v>-7.424000000000001</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.604</v>
+        <v>-21.632</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-11.342</v>
+        <v>-11.447</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.536</v>
+        <v>-11.421</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22.138</v>
+        <v>-21.49</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-13.192</v>
+        <v>-13.341</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.18</v>
+        <v>-21.218</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.933999999999999</v>
+        <v>5.238</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>5.67</v>
+        <v>6.587000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.992</v>
+        <v>-12.919</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
